--- a/Lotto/엑셀자동매매_샘플.xlsx
+++ b/Lotto/엑셀자동매매_샘플.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Lotto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Git\Idea\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC405F6-2544-4453-950A-F03F7BBCAB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F039A0-0764-42C9-B6AB-2400A026287E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>PROETF ULTRAPRO QQQ</t>
   </si>
@@ -273,18 +273,6 @@
   </si>
   <si>
     <t>미국달러</t>
-  </si>
-  <si>
-    <t>적립1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오늘 날짜</t>
@@ -303,11 +291,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="0.0%"/>
     <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="yyyy/mm"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -397,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +415,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -453,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,9 +481,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,12 +500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="9" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -642,15 +614,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -665,7 +637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9925050" y="742949"/>
+          <a:off x="10515600" y="742950"/>
           <a:ext cx="6267450" cy="5200651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1499,17 +1471,68 @@
               <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> 예수금 시트 업데이트</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t> 예수금 시트 업데이트 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>원화는 반영 안됨</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 원화주문 설정시 반영됨 주의</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>!)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1655,7 +1678,7 @@
               <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
               <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>와 현금의 비중을 </a:t>
+            <a:t>와 외화달러의 비중을 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
@@ -1871,32 +1894,29 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>173.66</v>
-    <v>69.86</v>
-    <v>3.2894000000000001</v>
-    <v>5.09</v>
-    <v>2.7200000000000002E-3</v>
-    <v>3.1740999999999998E-2</v>
-    <v>0.45</v>
+    <v>183.36</v>
+    <v>75.03</v>
+    <v>3.2806999999999999</v>
+    <v>-6.65</v>
+    <v>-3.8858999999999998E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>9.4999999999999998E-3</v>
-    <v>166.07</v>
+    <v>171.89</v>
     <v>ETF</v>
-    <v>44512.95693</v>
+    <v>44566.041664710159</v>
     <v>0</v>
-    <v>159.75</v>
-    <v>17960234119.919998</v>
+    <v>160.38999999999999</v>
+    <v>20642247393.25</v>
     <v>ProShares:UltP QQQ</v>
-    <v>161.81</v>
-    <v>160.36000000000001</v>
-    <v>165.45</v>
-    <v>165.9</v>
+    <v>171.83</v>
+    <v>171.13</v>
+    <v>164.48</v>
     <v>TQQQ</v>
     <v>ProShares:UltP QQQ (XNAS:TQQQ)</v>
-    <v>31910196</v>
-    <v>34142734</v>
+    <v>85813</v>
+    <v>57117469</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -1926,9 +1946,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -1943,7 +1961,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -1958,7 +1975,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="37">
+    <a count="34">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1969,16 +1986,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2033,19 +2047,13 @@
       <v>7</v>
       <v>8</v>
       <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2087,9 +2095,6 @@
     <k n="Last trade time" t="i"/>
     <k n="`_DisplayString" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2097,9 +2102,6 @@
     <k n="Exchange" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2414,11 +2416,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21717E2C-31E1-46D9-AA9F-C6EB49DC4DE6}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2429,8 +2429,7 @@
     <col min="8" max="8" width="9" style="7"/>
     <col min="9" max="9" width="15.25" style="7" customWidth="1"/>
     <col min="10" max="10" width="20.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2464,14 +2463,14 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="str">
-        <f ca="1">J19</f>
+        <f ca="1">J16</f>
         <v>주문 일차 불일치</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11">
-        <f ca="1">INT(ROUND(J20,0))</f>
+        <f ca="1">INT(ROUND(J17,0))</f>
         <v>4</v>
       </c>
       <c r="D2" s="12">
@@ -2515,7 +2514,7 @@
       <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="17" t="e" vm="1">
+      <c r="J4" s="16" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2530,9 +2529,9 @@
       <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="18" cm="1">
+      <c r="J5" s="17" cm="1">
         <f t="array" ref="J5">_FV(J4,"52 week high",TRUE)</f>
-        <v>173.66</v>
+        <v>183.36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2544,9 +2543,9 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="I6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="18">
+        <v>57</v>
+      </c>
+      <c r="J6" s="17">
         <f ca="1">VLOOKUP(J10,OFFSET(실시간잔고!A2:AD31,0,MATCH("종목명",실시간잔고!1:1,0)-1),MATCH(I6,실시간잔고!1:1,0)-(MATCH("종목명",실시간잔고!1:1,0)-1),0)</f>
         <v>165.45</v>
       </c>
@@ -2562,9 +2561,9 @@
       <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <f ca="1">J6/J5-1</f>
-        <v>-4.7276286997581574E-2</v>
+        <v>-9.7676701570680757E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2578,7 +2577,7 @@
       <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>0.3</v>
       </c>
     </row>
@@ -2602,7 +2601,7 @@
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2617,7 +2616,7 @@
       <c r="I11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <f ca="1">VLOOKUP(J10,OFFSET(실시간잔고!A2:AD31,0,MATCH("종목명",실시간잔고!1:1,0)-1),MATCH(I11,실시간잔고!1:1,0)-(MATCH("종목명",실시간잔고!1:1,0)-1),0)</f>
         <v>4798.05</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="I12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <f ca="1">OFFSET(예수금!A1,3,(MATCH("외화예수금",예수금!A1:J1,0))-1)</f>
         <v>1177.7</v>
       </c>
@@ -2647,10 +2646,11 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="I13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="24">
-        <v>44501</v>
+        <v>42</v>
+      </c>
+      <c r="J13" s="19">
+        <f ca="1">J11+J12</f>
+        <v>5975.75</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2662,10 +2662,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="I14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="25">
-        <v>44513</v>
+        <v>46</v>
+      </c>
+      <c r="J14" s="23">
+        <f ca="1">J12/J13</f>
+        <v>0.19707986445216083</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2677,9 +2678,12 @@
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
       <c r="I15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="J15" s="20">
+        <f ca="1">J12-(J13*J8)</f>
+        <v>-615.02499999999986</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
@@ -2690,14 +2694,14 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="I16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="20">
-        <f ca="1">J11+J12</f>
-        <v>5975.75</v>
+        <v>15</v>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f ca="1">IF(J12=0,"예수금 없음",IF(AND(J19=J20,J20=J21),IF(J15&gt;0,"매수","매도"),"주문 일차 불일치"))</f>
+        <v>주문 일차 불일치</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2706,14 +2710,14 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="I17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="26">
-        <f ca="1">J12/J16</f>
-        <v>0.19707986445216083</v>
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
+        <f ca="1">ABS(J15/J6)</f>
+        <v>3.7172861891810207</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2721,15 +2725,8 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="I18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="21">
-        <f ca="1">J12-(J16*J8)</f>
-        <v>-615.02499999999986</v>
-      </c>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2738,14 +2735,14 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="I19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="22">
+        <f ca="1">INT(MONTH(TODAY())&amp;DAY(TODAY()))</f>
         <v>15</v>
       </c>
-      <c r="J19" s="22" t="str">
-        <f ca="1">IF(J12=0,"예수금 없음",IF(AND(J22=J23,J23=J24),IF(J18&gt;0,"매수","매도"),"주문 일차 불일치"))</f>
-        <v>주문 일차 불일치</v>
-      </c>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2754,14 +2751,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="I20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="21">
-        <f ca="1">ABS(J18/J6)</f>
-        <v>3.7172861891810207</v>
+        <v>56</v>
+      </c>
+      <c r="J20" s="22">
+        <f>INT(MONTH(실시간잔고!A1)&amp;DAY(실시간잔고!A1))</f>
+        <v>1114</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2769,31 +2766,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="23">
-        <f ca="1">INT(MONTH(TODAY())&amp;DAY(TODAY()))</f>
-        <v>1210</v>
-      </c>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="23">
-        <f>INT(MONTH(실시간잔고!A1)&amp;DAY(실시간잔고!A1))</f>
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J21" s="22">
         <f>INT(MONTH(예수금!A1)&amp;DAY(예수금!A1))</f>
         <v>1114</v>
       </c>
@@ -3011,7 +2987,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
